--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
         <v>2.38</v>
@@ -676,16 +676,16 @@
         <v>2.92</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -700,22 +700,22 @@
         <v>2.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="T2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
         <v>2.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W2" t="n">
         <v>1.73</v>
@@ -754,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -820,43 +820,43 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
         <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
         <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
         <v>18</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
         <v>3.85</v>
@@ -970,7 +970,7 @@
         <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,16 +1075,16 @@
         <v>2.68</v>
       </c>
       <c r="G5" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I5" t="n">
         <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
         <v>4.1</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
         <v>1.63</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="H6" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="I6" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="J6" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>15</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.92</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1267,13 +1267,13 @@
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
@@ -1402,7 +1402,7 @@
         <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA7" t="n">
         <v>55</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G8" t="n">
         <v>3.95</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q8" t="n">
         <v>2.28</v>
@@ -1615,7 +1615,7 @@
         <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
         <v>3.05</v>
@@ -1651,10 +1651,10 @@
         <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
         <v>2.36</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
         <v>15</v>
@@ -1753,7 +1753,7 @@
         <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
         <v>3.9</v>
@@ -1762,7 +1762,7 @@
         <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
         <v>2.04</v>
@@ -1939,7 +1939,7 @@
         <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
         <v>18.5</v>
@@ -2029,10 +2029,10 @@
         <v>2.16</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G2" t="n">
         <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -694,40 +694,40 @@
         <v>6.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S2" t="n">
         <v>2.08</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U2" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,40 +736,40 @@
         <v>20</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V3" t="n">
         <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
         <v>18</v>
       </c>
       <c r="Z3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL3" t="n">
         <v>32</v>
       </c>
-      <c r="AA3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
         <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +970,7 @@
         <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>27</v>
       </c>
       <c r="H6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="I6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="J6" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R6" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1273,13 +1273,13 @@
         <v>11.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7">
@@ -1384,10 +1384,10 @@
         <v>2.54</v>
       </c>
       <c r="T7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1402,37 +1402,37 @@
         <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1492,7 +1492,7 @@
         <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
         <v>3.15</v>
@@ -1636,7 +1636,7 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.26</v>
@@ -1651,13 +1651,13 @@
         <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T9" t="n">
         <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL9" t="n">
         <v>40</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H10" t="n">
         <v>3.75</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
         <v>1.47</v>
@@ -1822,7 +1822,7 @@
         <v>16.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF10" t="n">
         <v>14</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="G11" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.41</v>
@@ -1915,7 +1915,7 @@
         <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
         <v>1.29</v>
@@ -1927,7 +1927,7 @@
         <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
         <v>7.4</v>
@@ -1960,7 +1960,7 @@
         <v>36</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -1975,7 +1975,7 @@
         <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
@@ -1984,10 +1984,10 @@
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="I12" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="K12" t="n">
         <v>3.85</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,135 +2263,270 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Union La Calera</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>20:10:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Boyaca Patriotas</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Real Cartagena</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>1.04</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>1000</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1.04</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>1000</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>1.01</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K15" t="n">
         <v>950</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>1.01</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I2" t="n">
         <v>3.1</v>
@@ -682,37 +682,37 @@
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.24</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="U2" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="V2" t="n">
         <v>1.48</v>
@@ -721,55 +721,55 @@
         <v>1.72</v>
       </c>
       <c r="X2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>2.06</v>
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -826,7 +826,7 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -838,7 +838,7 @@
         <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>2.92</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="G4" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.85</v>
       </c>
-      <c r="I4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Slovakian 2 Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Malzenice</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Pohronie</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Septemvri</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X6" t="n">
+        <v>960</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z6" t="n">
         <v>27</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AA6" t="n">
-        <v>11.5</v>
+        <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>85</v>
+        <v>960</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.5</v>
+        <v>960</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
         <v>2.24</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.28</v>
-      </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.8</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2.48</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>2.54</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Bodrum</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.75</v>
+        <v>1.44</v>
       </c>
       <c r="G8" t="n">
-        <v>3.95</v>
+        <v>1.54</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.96</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="S9" t="n">
-        <v>2.98</v>
+        <v>2.66</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>960</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z9" t="n">
-        <v>28</v>
+        <v>960</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>960</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>960</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>960</v>
       </c>
       <c r="AI9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL9" t="n">
         <v>46</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>40</v>
       </c>
       <c r="AM9" t="n">
         <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,123 +1733,123 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="G10" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S10" t="n">
         <v>3</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.7</v>
-      </c>
       <c r="T10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W10" t="n">
         <v>2.04</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,66 +1868,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.84</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>15.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>1.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>11.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,192 +2341,732 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>US Cremonese</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20:10:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Boyaca Patriotas</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Real Cartagena</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Internacional de Palmira</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
         <v>1.04</v>
       </c>
-      <c r="G15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.04</v>
       </c>
-      <c r="I15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J18" t="n">
         <v>1.01</v>
       </c>
-      <c r="K15" t="n">
-        <v>950</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="K18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q18" t="n">
         <v>1.01</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Union La Calera</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I2" t="n">
         <v>3.1</v>
@@ -685,10 +685,10 @@
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
         <v>6.6</v>
@@ -697,7 +697,7 @@
         <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="Q2" t="n">
         <v>1.47</v>
@@ -706,7 +706,7 @@
         <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T2" t="n">
         <v>1.46</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G3" t="n">
         <v>2.06</v>
@@ -811,10 +811,10 @@
         <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -841,7 +841,7 @@
         <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
         <v>1.68</v>
@@ -856,10 +856,10 @@
         <v>1.94</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
         <v>30</v>
@@ -868,7 +868,7 @@
         <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>42</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H4" t="n">
         <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
@@ -964,7 +964,7 @@
         <v>3.85</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>1.98</v>
@@ -985,10 +985,10 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
@@ -1012,19 +1012,19 @@
         <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
         <v>24</v>
@@ -1075,7 +1075,7 @@
         <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>2.26</v>
@@ -1084,13 +1084,13 @@
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
         <v>7.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1099,13 +1099,13 @@
         <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.14</v>
+        <v>1.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>1.09</v>
@@ -1123,7 +1123,7 @@
         <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
         <v>2.86</v>
@@ -1216,7 +1216,7 @@
         <v>2.92</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
         <v>2.94</v>
@@ -1240,7 +1240,7 @@
         <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
         <v>1.34</v>
@@ -1258,7 +1258,7 @@
         <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X6" t="n">
         <v>960</v>
@@ -1303,7 +1303,7 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
@@ -1312,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q7" t="n">
         <v>2.16</v>
@@ -1510,7 +1510,7 @@
         <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
         <v>1.51</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G9" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -1642,10 +1642,10 @@
         <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
         <v>1.43</v>
@@ -1654,7 +1654,7 @@
         <v>2.66</v>
       </c>
       <c r="T9" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -1663,10 +1663,10 @@
         <v>1.55</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X9" t="n">
-        <v>960</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
         <v>16</v>
@@ -1690,10 +1690,10 @@
         <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>960</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>960</v>
@@ -1705,7 +1705,7 @@
         <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
         <v>46</v>
@@ -1714,7 +1714,7 @@
         <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>24</v>
@@ -1750,10 +1750,10 @@
         <v>1.67</v>
       </c>
       <c r="G10" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
         <v>7.2</v>
@@ -1765,13 +1765,13 @@
         <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.88</v>
+        <v>2.56</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
@@ -1780,10 +1780,10 @@
         <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
         <v>3</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Miedz Legnica</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>27</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>1.34</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>1.44</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>6.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>23</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.8</v>
+        <v>2.94</v>
       </c>
       <c r="G13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.36</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.32</v>
+        <v>3.7</v>
       </c>
       <c r="G14" t="n">
-        <v>2.36</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="I14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.3</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>28</v>
-      </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AF14" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Cracovia Krakow</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="I15" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="T15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.04</v>
       </c>
-      <c r="U15" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="X15" t="n">
-        <v>9.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
         <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN15" t="n">
         <v>34</v>
       </c>
-      <c r="AK15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>28</v>
-      </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="G16" t="n">
-        <v>2.86</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.92</v>
+        <v>2.38</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>SFC Opava</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
-        <v>5.9</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="I17" t="n">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,260 +2813,7685 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>1.71</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>6.2</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SKU Amstetten</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SV Stripfing/Weiden</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="X19" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>960</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>960</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>960</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FC Liefering</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KSV 1919</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X20" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Danish 1st Division</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>HB Koge</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hillerod Fodbold</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X21" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>960</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>960</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>960</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>German Bundesliga 2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>German Bundesliga 2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Preussen Munster</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Al Najma Club</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Al-Hilal</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>11</v>
+      </c>
+      <c r="G24" t="n">
+        <v>27</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Danish 1st Division</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AC Horsens</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>German 3 Liga</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Duisburg</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X27" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Etoile Carouge</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Farul Constanta</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Botosani</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Bourg-en-Bresse</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G32" t="n">
+        <v>980</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Rapperswil-Jona</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FC Wil</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Villefranche Beaujolais</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X34" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Fleury Merogis</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Aubagne FC</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Le Puy</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K36" t="n">
+        <v>980</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Versailles 78 FC</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K37" t="n">
+        <v>110</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Amiens</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X40" t="n">
+        <v>960</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>960</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X41" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X43" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Dutch Eredivisie</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FC Twente</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SC Telstar</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>VVV Venlo</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Jong Ajax Amsterdam</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>FC Dordrecht</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>960</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Jong FC Utrecht</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I49" t="n">
+        <v>980</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K49" t="n">
+        <v>980</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>FC Oss</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X50" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>960</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>960</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Vitesse Arnhem</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X51" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>960</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>960</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Boulogne</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X52" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Neuchatel Xamax</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K54" t="n">
+        <v>980</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Slovenian Premier League</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NK Primorje</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>11</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W55" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Admira Wacker</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>St Polten</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X57" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SSD Bari</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="X58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Cavese 1919</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Potenza</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K59" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Zaglebie Lubin</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>4</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X61" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Polish I Liga</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Znicz Pruszkow</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Chrobry Glogow</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Sporting Gijon</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Miramar Misiones</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Racing Club (Uru)</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K65" t="n">
+        <v>950</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Briton Ferry Llansawel</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Paris FC</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X67" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>US Cremonese</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X68" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Airdrieonians</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Partick</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K69" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Internacional de Palmira</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Cerro Largo FC</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Liverpool Montevideo</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>Chilean Primera Division</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Union La Calera</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Deportes Iquique</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F74" t="n">
         <v>2.28</v>
       </c>
-      <c r="G19" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="G74" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I74" t="n">
         <v>3.9</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J74" t="n">
         <v>3.3</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K74" t="n">
         <v>3.75</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q74" t="n">
         <v>2.06</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO74" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO81"/>
+  <dimension ref="A1:AO87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
@@ -700,16 +700,16 @@
         <v>2.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U2" t="n">
         <v>2.9</v>
@@ -724,16 +724,16 @@
         <v>34</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
         <v>28</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -754,7 +754,7 @@
         <v>14.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>14.5</v>
@@ -805,7 +805,7 @@
         <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
@@ -826,28 +826,28 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
         <v>1.76</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
         <v>1.33</v>
@@ -856,7 +856,7 @@
         <v>1.94</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>17.5</v>
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I4" t="n">
         <v>6.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.31</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>3.85</v>
@@ -967,7 +967,7 @@
         <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
         <v>1.82</v>
@@ -976,70 +976,70 @@
         <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
         <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
         <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G6" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.34</v>
@@ -1234,13 +1234,13 @@
         <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
         <v>1.34</v>
@@ -1255,16 +1255,16 @@
         <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1372,13 +1372,13 @@
         <v>1.4</v>
       </c>
       <c r="P7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.23</v>
       </c>
       <c r="S7" t="n">
         <v>3.55</v>
@@ -1390,10 +1390,10 @@
         <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="G8" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>10.5</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1513,22 +1513,22 @@
         <v>1.54</v>
       </c>
       <c r="R8" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>2.12</v>
       </c>
       <c r="T8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U8" t="n">
         <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="X8" t="n">
         <v>38</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H9" t="n">
         <v>2.56</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1642,19 +1642,19 @@
         <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S9" t="n">
         <v>2.88</v>
       </c>
       <c r="T9" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -1663,10 +1663,10 @@
         <v>1.55</v>
       </c>
       <c r="W9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
         <v>980</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="G10" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H10" t="n">
         <v>5.1</v>
@@ -1759,7 +1759,7 @@
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>2.06</v>
+        <v>1.09</v>
       </c>
       <c r="K10" t="n">
         <v>1000</v>
@@ -1771,16 +1771,16 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O10" t="n">
         <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
@@ -1885,7 +1885,7 @@
         <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H11" t="n">
         <v>2.92</v>
@@ -1906,13 +1906,13 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
         <v>1.73</v>
@@ -1933,7 +1933,7 @@
         <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
@@ -1969,7 +1969,7 @@
         <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
         <v>980</v>
@@ -1978,7 +1978,7 @@
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>75</v>
@@ -1987,7 +1987,7 @@
         <v>17.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>4.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I13" t="n">
         <v>2.64</v>
@@ -2176,16 +2176,16 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.83</v>
+        <v>2.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
         <v>1.32</v>
@@ -2194,13 +2194,13 @@
         <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W13" t="n">
         <v>1.29</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.09</v>
+        <v>2.92</v>
       </c>
       <c r="G14" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="I14" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.31</v>
@@ -2311,16 +2311,16 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>2.58</v>
       </c>
       <c r="O14" t="n">
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
         <v>1.29</v>
@@ -2329,16 +2329,16 @@
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V14" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="W14" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2425,7 +2425,7 @@
         <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -2434,7 +2434,7 @@
         <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
         <v>4.5</v>
@@ -2458,22 +2458,22 @@
         <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="S15" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
         <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
         <v>26</v>
@@ -2521,7 +2521,7 @@
         <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
         <v>12</v>
@@ -2560,7 +2560,7 @@
         <v>1.3</v>
       </c>
       <c r="G16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>8.6</v>
@@ -2572,7 +2572,7 @@
         <v>5.3</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,7 +2581,7 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
@@ -2608,7 +2608,7 @@
         <v>1.08</v>
       </c>
       <c r="W16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="G17" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="I17" t="n">
-        <v>24</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J17" t="n">
         <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.32</v>
@@ -2716,16 +2716,16 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.85</v>
+        <v>2.66</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
         <v>1.29</v>
@@ -2734,16 +2734,16 @@
         <v>2.96</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V17" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G18" t="n">
         <v>3.5</v>
       </c>
       <c r="H18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
         <v>2.94</v>
@@ -2872,7 +2872,7 @@
         <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>1.52</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H19" t="n">
-        <v>1.36</v>
+        <v>1.97</v>
       </c>
       <c r="I19" t="n">
         <v>2.58</v>
@@ -2977,7 +2977,7 @@
         <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.27</v>
@@ -2986,34 +2986,34 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="O19" t="n">
         <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.97</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R19" t="n">
         <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W19" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3103,10 +3103,10 @@
         <v>3.15</v>
       </c>
       <c r="H20" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I20" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J20" t="n">
         <v>3.2</v>
@@ -3127,7 +3127,7 @@
         <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="Q20" t="n">
         <v>2.04</v>
@@ -3139,13 +3139,13 @@
         <v>3.7</v>
       </c>
       <c r="T20" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U20" t="n">
         <v>2.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W20" t="n">
         <v>1.47</v>
@@ -3154,13 +3154,13 @@
         <v>16</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
         <v>18.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="n">
         <v>12</v>
@@ -3259,7 +3259,7 @@
         <v>2.34</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P21" t="n">
         <v>2.34</v>
@@ -3268,16 +3268,16 @@
         <v>1.39</v>
       </c>
       <c r="R21" t="n">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
         <v>2.16</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V21" t="n">
         <v>1.05</v>
@@ -3466,7 +3466,7 @@
         <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
         <v>60</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
         <v>29</v>
@@ -3514,7 +3514,7 @@
         <v>1.16</v>
       </c>
       <c r="J23" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
         <v>13</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I24" t="n">
         <v>2.82</v>
@@ -3661,28 +3661,28 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>2.52</v>
+        <v>1.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.52</v>
+        <v>1.89</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="R24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.26</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.22</v>
       </c>
       <c r="V24" t="n">
         <v>1.54</v>
@@ -3703,7 +3703,7 @@
         <v>55</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
         <v>14.5</v>
@@ -3727,7 +3727,7 @@
         <v>46</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AK24" t="n">
         <v>36</v>
@@ -3739,10 +3739,10 @@
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -3775,10 +3775,10 @@
         <v>2.58</v>
       </c>
       <c r="G25" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I25" t="n">
         <v>2.74</v>
@@ -3799,7 +3799,7 @@
         <v>5.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
         <v>2.36</v>
@@ -3808,76 +3808,76 @@
         <v>1.59</v>
       </c>
       <c r="R25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S25" t="n">
         <v>2.54</v>
       </c>
       <c r="T25" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>2.52</v>
       </c>
       <c r="V25" t="n">
         <v>1.57</v>
       </c>
       <c r="W25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="G26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H26" t="n">
         <v>1.87</v>
@@ -3940,7 +3940,7 @@
         <v>2.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="R26" t="n">
         <v>1.49</v>
@@ -3949,16 +3949,16 @@
         <v>2.56</v>
       </c>
       <c r="T26" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U26" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V26" t="n">
         <v>1.9</v>
       </c>
       <c r="W26" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X26" t="n">
         <v>980</v>
@@ -4000,7 +4000,7 @@
         <v>100</v>
       </c>
       <c r="AK26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL26" t="n">
         <v>980</v>
@@ -4189,7 +4189,7 @@
         <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
         <v>4.2</v>
@@ -4201,10 +4201,10 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
         <v>2.52</v>
@@ -4213,7 +4213,7 @@
         <v>1.62</v>
       </c>
       <c r="R28" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S28" t="n">
         <v>2.52</v>
@@ -4234,7 +4234,7 @@
         <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4246,13 +4246,13 @@
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD28" t="n">
         <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF28" t="n">
         <v>1000</v>
@@ -4264,13 +4264,13 @@
         <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4315,19 +4315,19 @@
         <v>1.97</v>
       </c>
       <c r="G29" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4342,16 +4342,16 @@
         <v>1.23</v>
       </c>
       <c r="P29" t="n">
-        <v>1.39</v>
+        <v>2.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
         <v>1.39</v>
       </c>
       <c r="S29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4360,10 +4360,10 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W29" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="X29" t="n">
         <v>980</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G30" t="n">
         <v>3.85</v>
       </c>
       <c r="H30" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="I30" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="J30" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K30" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
         <v>1.37</v>
@@ -4477,82 +4477,82 @@
         <v>1.41</v>
       </c>
       <c r="P30" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="V30" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W30" t="n">
         <v>1.35</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="I31" t="n">
         <v>3.45</v>
       </c>
       <c r="J31" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="K31" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L31" t="n">
         <v>1.27</v>
@@ -4606,22 +4606,22 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O31" t="n">
         <v>1.27</v>
       </c>
       <c r="P31" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
         <v>1.33</v>
       </c>
       <c r="S31" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4630,7 +4630,7 @@
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W31" t="n">
         <v>1.5</v>
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.5</v>
+        <v>2.74</v>
       </c>
       <c r="G32" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I32" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>980</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
         <v>1.29</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1.84</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.74</v>
-      </c>
       <c r="R32" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S32" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V32" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="W32" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
@@ -4885,7 +4885,7 @@
         <v>1.84</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G34" t="n">
         <v>4.4</v>
@@ -5002,7 +5002,7 @@
         <v>2.96</v>
       </c>
       <c r="K34" t="n">
-        <v>5.7</v>
+        <v>980</v>
       </c>
       <c r="L34" t="n">
         <v>1.33</v>
@@ -5011,13 +5011,13 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q34" t="n">
         <v>1.83</v>
@@ -5038,7 +5038,7 @@
         <v>1.51</v>
       </c>
       <c r="W34" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5128,13 +5128,13 @@
         <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I35" t="n">
         <v>2.02</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
         <v>5.4</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G36" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
@@ -5284,19 +5284,19 @@
         <v>2.96</v>
       </c>
       <c r="O36" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P36" t="n">
         <v>1.67</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R36" t="n">
         <v>1.25</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="T36" t="n">
         <v>1.93</v>
@@ -5308,16 +5308,16 @@
         <v>1.26</v>
       </c>
       <c r="W36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
         <v>16</v>
       </c>
       <c r="Z36" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA36" t="n">
         <v>130</v>
@@ -5359,7 +5359,7 @@
         <v>170</v>
       </c>
       <c r="AN36" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO36" t="n">
         <v>110</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="J37" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K37" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.37</v>
@@ -5425,7 +5425,7 @@
         <v>1.56</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R37" t="n">
         <v>1.2</v>
@@ -5440,10 +5440,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W37" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5533,16 +5533,16 @@
         <v>2.74</v>
       </c>
       <c r="H38" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
         <v>2.98</v>
       </c>
       <c r="K38" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L38" t="n">
         <v>1.38</v>
@@ -5557,10 +5557,10 @@
         <v>1.01</v>
       </c>
       <c r="P38" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="R38" t="n">
         <v>1.21</v>
@@ -5575,10 +5575,10 @@
         <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W38" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5692,10 +5692,10 @@
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R39" t="n">
         <v>1.19</v>
@@ -5710,7 +5710,7 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W39" t="n">
         <v>1.42</v>
@@ -5797,13 +5797,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G40" t="n">
         <v>3.2</v>
       </c>
       <c r="H40" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I40" t="n">
         <v>3.4</v>
@@ -5812,7 +5812,7 @@
         <v>2.88</v>
       </c>
       <c r="K40" t="n">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="L40" t="n">
         <v>1.37</v>
@@ -5827,13 +5827,13 @@
         <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q40" t="n">
         <v>2.02</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S40" t="n">
         <v>3.55</v>
@@ -5938,7 +5938,7 @@
         <v>2.98</v>
       </c>
       <c r="H41" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I41" t="n">
         <v>3.55</v>
@@ -5965,7 +5965,7 @@
         <v>1.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R41" t="n">
         <v>1.29</v>
@@ -5998,7 +5998,7 @@
         <v>75</v>
       </c>
       <c r="AB41" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
         <v>11</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G42" t="n">
         <v>1.77</v>
@@ -6091,7 +6091,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O42" t="n">
         <v>1.34</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
         <v>2.1</v>
@@ -6214,7 +6214,7 @@
         <v>4.6</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K43" t="n">
         <v>3.75</v>
@@ -6223,31 +6223,31 @@
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>1.78</v>
+        <v>3.25</v>
       </c>
       <c r="O43" t="n">
         <v>1.37</v>
       </c>
       <c r="P43" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R43" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S43" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="T43" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="V43" t="n">
         <v>1.27</v>
@@ -6259,7 +6259,7 @@
         <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z43" t="n">
         <v>38</v>
@@ -6274,13 +6274,13 @@
         <v>9.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE43" t="n">
         <v>70</v>
       </c>
       <c r="AF43" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
@@ -6289,13 +6289,13 @@
         <v>24</v>
       </c>
       <c r="AI43" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ43" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK43" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL43" t="n">
         <v>55</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G44" t="n">
         <v>3.7</v>
@@ -6346,7 +6346,7 @@
         <v>2.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J44" t="n">
         <v>3.05</v>
@@ -6370,7 +6370,7 @@
         <v>1.59</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R44" t="n">
         <v>1.21</v>
@@ -6385,7 +6385,7 @@
         <v>1.86</v>
       </c>
       <c r="V44" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W44" t="n">
         <v>1.37</v>
@@ -6400,7 +6400,7 @@
         <v>980</v>
       </c>
       <c r="AA44" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB44" t="n">
         <v>980</v>
@@ -6427,7 +6427,7 @@
         <v>60</v>
       </c>
       <c r="AJ44" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK44" t="n">
         <v>980</v>
@@ -6481,7 +6481,7 @@
         <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J45" t="n">
         <v>3.05</v>
@@ -6496,37 +6496,37 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="O45" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P45" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R45" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T45" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U45" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V45" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W45" t="n">
         <v>1.75</v>
       </c>
       <c r="X45" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y45" t="n">
         <v>16.5</v>
@@ -6547,25 +6547,25 @@
         <v>24</v>
       </c>
       <c r="AE45" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG45" t="n">
         <v>16</v>
       </c>
       <c r="AH45" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI45" t="n">
         <v>100</v>
       </c>
       <c r="AJ45" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK45" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL45" t="n">
         <v>75</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G46" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H46" t="n">
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J46" t="n">
         <v>2.9</v>
@@ -6631,22 +6631,22 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O46" t="n">
         <v>1.39</v>
       </c>
       <c r="P46" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R46" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S46" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T46" t="n">
         <v>1.01</v>
@@ -6658,7 +6658,7 @@
         <v>1.23</v>
       </c>
       <c r="W46" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6748,7 +6748,7 @@
         <v>1.38</v>
       </c>
       <c r="H47" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="I47" t="n">
         <v>13</v>
@@ -6766,19 +6766,19 @@
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>2.8</v>
+        <v>6.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P47" t="n">
         <v>2.8</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R47" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S47" t="n">
         <v>2.2</v>
@@ -6787,7 +6787,7 @@
         <v>1.84</v>
       </c>
       <c r="U47" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V47" t="n">
         <v>1.08</v>
@@ -6796,55 +6796,55 @@
         <v>3.6</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y47" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AB47" t="n">
         <v>980</v>
       </c>
       <c r="AC47" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AD47" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>12</v>
       </c>
-      <c r="AG47" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>980</v>
-      </c>
       <c r="AK47" t="n">
         <v>980</v>
       </c>
       <c r="AL47" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6868,67 +6868,67 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.25</v>
+        <v>1.34</v>
       </c>
       <c r="G48" t="n">
-        <v>3.7</v>
+        <v>1.42</v>
       </c>
       <c r="H48" t="n">
-        <v>2.14</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
-        <v>2.26</v>
+        <v>11.5</v>
       </c>
       <c r="J48" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="P48" t="n">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.49</v>
+        <v>1.83</v>
       </c>
       <c r="S48" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="T48" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="U48" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="V48" t="n">
-        <v>1.79</v>
+        <v>1.1</v>
       </c>
       <c r="W48" t="n">
-        <v>1.37</v>
+        <v>3.4</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -6937,13 +6937,13 @@
         <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC48" t="n">
         <v>1000</v>
@@ -6952,34 +6952,34 @@
         <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH48" t="n">
         <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL48" t="n">
         <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7015,19 +7015,19 @@
         <v>2.96</v>
       </c>
       <c r="G49" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="I49" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J49" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K49" t="n">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,10 +7036,10 @@
         <v>1.02</v>
       </c>
       <c r="N49" t="n">
-        <v>2.92</v>
+        <v>6.6</v>
       </c>
       <c r="O49" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P49" t="n">
         <v>2.92</v>
@@ -7048,76 +7048,76 @@
         <v>1.43</v>
       </c>
       <c r="R49" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="S49" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="V49" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="W49" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="50">
@@ -7156,7 +7156,7 @@
         <v>1.44</v>
       </c>
       <c r="I50" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J50" t="n">
         <v>3.55</v>
@@ -7183,10 +7183,10 @@
         <v>1.64</v>
       </c>
       <c r="R50" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S50" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T50" t="n">
         <v>1.01</v>
@@ -7285,7 +7285,7 @@
         <v>1.49</v>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H51" t="n">
         <v>5.7</v>
@@ -7297,7 +7297,7 @@
         <v>4.9</v>
       </c>
       <c r="K51" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="L51" t="n">
         <v>1.21</v>
@@ -7324,7 +7324,7 @@
         <v>1.98</v>
       </c>
       <c r="T51" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U51" t="n">
         <v>2.24</v>
@@ -7351,7 +7351,7 @@
         <v>980</v>
       </c>
       <c r="AC51" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD51" t="n">
         <v>1000</v>
@@ -7408,55 +7408,55 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.34</v>
+        <v>1.09</v>
       </c>
       <c r="G52" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K52" t="n">
+        <v>980</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R52" t="n">
         <v>1.42</v>
       </c>
-      <c r="H52" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.74</v>
-      </c>
       <c r="S52" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7465,10 +7465,10 @@
         <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.1</v>
+        <v>1.58</v>
       </c>
       <c r="W52" t="n">
-        <v>3.4</v>
+        <v>1.37</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7543,118 +7543,118 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.09</v>
+        <v>1.68</v>
       </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>1.83</v>
       </c>
       <c r="H53" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="I53" t="n">
-        <v>2.76</v>
+        <v>5.7</v>
       </c>
       <c r="J53" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K53" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>2.16</v>
+        <v>5.3</v>
       </c>
       <c r="O53" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P53" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="R53" t="n">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="S53" t="n">
         <v>2.36</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V53" t="n">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="W53" t="n">
-        <v>1.37</v>
+        <v>2.2</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM53" t="n">
         <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7678,118 +7678,118 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.67</v>
+        <v>3.25</v>
       </c>
       <c r="G54" t="n">
-        <v>1.83</v>
+        <v>3.7</v>
       </c>
       <c r="H54" t="n">
-        <v>4.5</v>
+        <v>2.14</v>
       </c>
       <c r="I54" t="n">
-        <v>5.5</v>
+        <v>2.26</v>
       </c>
       <c r="J54" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="K54" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O54" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P54" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R54" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="S54" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T54" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="U54" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="V54" t="n">
-        <v>1.22</v>
+        <v>1.79</v>
       </c>
       <c r="W54" t="n">
-        <v>2.2</v>
+        <v>1.37</v>
       </c>
       <c r="X54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7825,10 +7825,10 @@
         <v>1.09</v>
       </c>
       <c r="G55" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I55" t="n">
         <v>4.7</v>
@@ -7846,13 +7846,13 @@
         <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="O55" t="n">
         <v>1.14</v>
       </c>
       <c r="P55" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="Q55" t="n">
         <v>1.43</v>
@@ -7873,7 +7873,7 @@
         <v>1.3</v>
       </c>
       <c r="W55" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7960,19 +7960,19 @@
         <v>1.34</v>
       </c>
       <c r="G56" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="H56" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I56" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J56" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K56" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7984,13 +7984,13 @@
         <v>1.01</v>
       </c>
       <c r="O56" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P56" t="n">
         <v>1.25</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="R56" t="n">
         <v>1.18</v>
@@ -8008,7 +8008,7 @@
         <v>1.09</v>
       </c>
       <c r="W56" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="G57" t="n">
         <v>3.2</v>
@@ -8116,19 +8116,19 @@
         <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="O57" t="n">
         <v>1.24</v>
       </c>
       <c r="P57" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R57" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S57" t="n">
         <v>2.46</v>
@@ -8257,16 +8257,16 @@
         <v>1.4</v>
       </c>
       <c r="P58" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
         <v>1.22</v>
       </c>
       <c r="S58" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T58" t="n">
         <v>1.01</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G59" t="n">
         <v>3.95</v>
@@ -8371,7 +8371,7 @@
         <v>2.16</v>
       </c>
       <c r="I59" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J59" t="n">
         <v>3.3</v>
@@ -8383,31 +8383,31 @@
         <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="O59" t="n">
         <v>1.46</v>
       </c>
       <c r="P59" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q59" t="n">
         <v>2.3</v>
       </c>
       <c r="R59" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="S59" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T59" t="n">
         <v>1.01</v>
       </c>
       <c r="U59" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V59" t="n">
         <v>1.8</v>
@@ -8443,7 +8443,7 @@
         <v>40</v>
       </c>
       <c r="AG59" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH59" t="n">
         <v>30</v>
@@ -8473,7 +8473,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8488,46 +8488,46 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>Znicz Pruszkow</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.09</v>
+        <v>2.56</v>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="H60" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="I60" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
       <c r="J60" t="n">
-        <v>3.4</v>
+        <v>1.54</v>
       </c>
       <c r="K60" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M60" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="O60" t="n">
         <v>1.27</v>
       </c>
       <c r="P60" t="n">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
       <c r="Q60" t="n">
         <v>1.74</v>
@@ -8536,7 +8536,7 @@
         <v>1.32</v>
       </c>
       <c r="S60" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="T60" t="n">
         <v>1.01</v>
@@ -8545,10 +8545,10 @@
         <v>1.01</v>
       </c>
       <c r="V60" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="W60" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8608,7 +8608,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,56 +8623,56 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.16</v>
+        <v>1.09</v>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
-        <v>2.96</v>
+        <v>2.32</v>
       </c>
       <c r="I61" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J61" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S61" t="n">
         <v>2.74</v>
       </c>
-      <c r="K61" t="n">
-        <v>980</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N61" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S61" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T61" t="n">
         <v>1.01</v>
       </c>
@@ -8680,10 +8680,10 @@
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="W61" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8743,7 +8743,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8758,109 +8758,109 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Znicz Pruszkow</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="G62" t="n">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="H62" t="n">
-        <v>2.2</v>
+        <v>2.98</v>
       </c>
       <c r="I62" t="n">
-        <v>2.92</v>
+        <v>3.75</v>
       </c>
       <c r="J62" t="n">
-        <v>1.54</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>6.6</v>
+        <v>3.45</v>
       </c>
       <c r="L62" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M62" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N62" t="n">
-        <v>1.82</v>
+        <v>2.38</v>
       </c>
       <c r="O62" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="P62" t="n">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="R62" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="S62" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="T62" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U62" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V62" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="W62" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA62" t="n">
         <v>1000</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC62" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE62" t="n">
         <v>1000</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG62" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI62" t="n">
         <v>1000</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK62" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL62" t="n">
         <v>1000</v>
@@ -8878,7 +8878,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8893,127 +8893,127 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="G63" t="n">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="J63" t="n">
-        <v>2.86</v>
+        <v>3.9</v>
       </c>
       <c r="K63" t="n">
-        <v>5.4</v>
+        <v>3.95</v>
       </c>
       <c r="L63" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M63" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N63" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="O63" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P63" t="n">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="R63" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="S63" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="T63" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U63" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="V63" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="W63" t="n">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="X63" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y63" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z63" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA63" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB63" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD63" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF63" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH63" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK63" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL63" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM63" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO63" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9028,127 +9028,127 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>2.78</v>
       </c>
       <c r="H64" t="n">
-        <v>4.8</v>
+        <v>2.92</v>
       </c>
       <c r="I64" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="J64" t="n">
-        <v>3.25</v>
+        <v>2.86</v>
       </c>
       <c r="K64" t="n">
-        <v>3.6</v>
+        <v>980</v>
       </c>
       <c r="L64" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M64" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>2.8</v>
+        <v>1.63</v>
       </c>
       <c r="O64" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="P64" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="R64" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S64" t="n">
-        <v>4.7</v>
+        <v>1.92</v>
       </c>
       <c r="T64" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="U64" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="W64" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="X64" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y64" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z64" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA64" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC64" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD64" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE64" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG64" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH64" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI64" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK64" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL64" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM64" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO64" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9163,121 +9163,121 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.28</v>
+        <v>1.89</v>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J65" t="n">
         <v>3.25</v>
       </c>
-      <c r="I65" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.9</v>
-      </c>
       <c r="K65" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L65" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M65" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N65" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="O65" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="P65" t="n">
-        <v>2.5</v>
+        <v>1.61</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.64</v>
+        <v>2.38</v>
       </c>
       <c r="R65" t="n">
-        <v>1.61</v>
+        <v>1.22</v>
       </c>
       <c r="S65" t="n">
-        <v>2.54</v>
+        <v>4.7</v>
       </c>
       <c r="T65" t="n">
-        <v>1.56</v>
+        <v>2.1</v>
       </c>
       <c r="U65" t="n">
-        <v>2.68</v>
+        <v>1.79</v>
       </c>
       <c r="V65" t="n">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="W65" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="X65" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Y65" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA65" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL65" t="n">
         <v>55</v>
       </c>
-      <c r="AB65" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>27</v>
-      </c>
       <c r="AM65" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AN65" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AO65" t="n">
-        <v>22</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66">
@@ -9307,22 +9307,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G66" t="n">
         <v>2.8</v>
       </c>
       <c r="H66" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>4.6</v>
       </c>
       <c r="J66" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K66" t="n">
-        <v>5.4</v>
+        <v>950</v>
       </c>
       <c r="L66" t="n">
         <v>1.33</v>
@@ -9331,13 +9331,13 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O66" t="n">
         <v>1.01</v>
       </c>
       <c r="P66" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q66" t="n">
         <v>1.89</v>
@@ -9358,7 +9358,7 @@
         <v>1.27</v>
       </c>
       <c r="W66" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9442,16 +9442,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="G67" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>4.5</v>
       </c>
       <c r="I67" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="J67" t="n">
         <v>3.1</v>
@@ -9472,7 +9472,7 @@
         <v>1.01</v>
       </c>
       <c r="P67" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q67" t="n">
         <v>2.16</v>
@@ -9490,10 +9490,10 @@
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W67" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9568,55 +9568,55 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.58</v>
+        <v>1.17</v>
       </c>
       <c r="G68" t="n">
-        <v>3.8</v>
+        <v>1.23</v>
       </c>
       <c r="H68" t="n">
-        <v>2.14</v>
+        <v>1.09</v>
       </c>
       <c r="I68" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="J68" t="n">
-        <v>3.05</v>
+        <v>7.2</v>
       </c>
       <c r="K68" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="L68" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q68" t="n">
         <v>1.29</v>
       </c>
-      <c r="M68" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P68" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R68" t="n">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="S68" t="n">
-        <v>2.62</v>
+        <v>1.72</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9625,10 +9625,10 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.46</v>
+        <v>1.05</v>
       </c>
       <c r="W68" t="n">
-        <v>1.36</v>
+        <v>4.2</v>
       </c>
       <c r="X68" t="n">
         <v>1000</v>
@@ -9688,7 +9688,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9703,55 +9703,55 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4.8</v>
+        <v>2.58</v>
       </c>
       <c r="G69" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="H69" t="n">
-        <v>1.49</v>
+        <v>2.14</v>
       </c>
       <c r="I69" t="n">
-        <v>1.83</v>
+        <v>1000</v>
       </c>
       <c r="J69" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="K69" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="L69" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="O69" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="P69" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R69" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S69" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9760,10 +9760,10 @@
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="W69" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9823,7 +9823,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9838,127 +9838,127 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.02</v>
+        <v>2.3</v>
       </c>
       <c r="G70" t="n">
-        <v>1.31</v>
+        <v>2.32</v>
       </c>
       <c r="H70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X70" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG70" t="n">
         <v>11</v>
       </c>
-      <c r="I70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K70" t="n">
-        <v>980</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N70" t="n">
-        <v>3</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P70" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S70" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U70" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W70" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH70" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI70" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK70" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL70" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM70" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN70" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9973,127 +9973,127 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G71" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="H71" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I71" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="J71" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="K71" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="L71" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V71" t="n">
         <v>1.35</v>
       </c>
-      <c r="M71" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N71" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P71" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S71" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U71" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V71" t="n">
-        <v>1.43</v>
-      </c>
       <c r="W71" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X71" t="n">
-        <v>18</v>
+        <v>9.4</v>
       </c>
       <c r="Y71" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Z71" t="n">
         <v>24</v>
       </c>
       <c r="AA71" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE71" t="n">
         <v>55</v>
       </c>
-      <c r="AB71" t="n">
+      <c r="AF71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG71" t="n">
         <v>12</v>
       </c>
-      <c r="AC71" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>11</v>
-      </c>
       <c r="AH71" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AI71" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AJ71" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK71" t="n">
         <v>30</v>
       </c>
-      <c r="AK71" t="n">
-        <v>23</v>
-      </c>
       <c r="AL71" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM71" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AN71" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AO71" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10108,121 +10108,121 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.38</v>
+        <v>4.8</v>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="H72" t="n">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="I72" t="n">
-        <v>3.85</v>
+        <v>1.83</v>
       </c>
       <c r="J72" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="K72" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="L72" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="M72" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>2.98</v>
+        <v>1.86</v>
       </c>
       <c r="O72" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="P72" t="n">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="R72" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S72" t="n">
-        <v>4.7</v>
+        <v>2.74</v>
       </c>
       <c r="T72" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="U72" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="V72" t="n">
-        <v>1.35</v>
+        <v>2.2</v>
       </c>
       <c r="W72" t="n">
-        <v>1.71</v>
+        <v>1.16</v>
       </c>
       <c r="X72" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y72" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z72" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA72" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB72" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC72" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD72" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE72" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF72" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG72" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH72" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI72" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ72" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK72" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL72" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM72" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73">
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G73" t="n">
         <v>2.88</v>
@@ -10261,7 +10261,7 @@
         <v>2.82</v>
       </c>
       <c r="I73" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J73" t="n">
         <v>3.3</v>
@@ -10276,40 +10276,40 @@
         <v>1.09</v>
       </c>
       <c r="N73" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O73" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P73" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R73" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S73" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T73" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U73" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V73" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W73" t="n">
         <v>1.53</v>
       </c>
       <c r="X73" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z73" t="n">
         <v>17</v>
@@ -10321,7 +10321,7 @@
         <v>10.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD73" t="n">
         <v>12.5</v>
@@ -10408,13 +10408,13 @@
         <v>1.41</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>1.87</v>
+        <v>3.6</v>
       </c>
       <c r="O74" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P74" t="n">
         <v>1.87</v>
@@ -10429,10 +10429,10 @@
         <v>3.35</v>
       </c>
       <c r="T74" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U74" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V74" t="n">
         <v>1.32</v>
@@ -10489,7 +10489,7 @@
         <v>130</v>
       </c>
       <c r="AN74" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AO74" t="n">
         <v>55</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="G75" t="n">
         <v>6.2</v>
@@ -10555,7 +10555,7 @@
         <v>1.66</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="H76" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I76" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J76" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K76" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -10684,85 +10684,85 @@
         <v>2.42</v>
       </c>
       <c r="O76" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="P76" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="R76" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V76" t="n">
         <v>1.2</v>
       </c>
-      <c r="S76" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T76" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U76" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V76" t="n">
-        <v>1.19</v>
-      </c>
       <c r="W76" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="X76" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y76" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Z76" t="n">
         <v>55</v>
       </c>
       <c r="AA76" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AB76" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC76" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AD76" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE76" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF76" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG76" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI76" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ76" t="n">
         <v>27</v>
       </c>
       <c r="AK76" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL76" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM76" t="n">
         <v>250</v>
       </c>
       <c r="AN76" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AO76" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77">
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H77" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="I77" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="J77" t="n">
         <v>3.35</v>
       </c>
       <c r="K77" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10825,22 +10825,22 @@
         <v>1.79</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R77" t="n">
         <v>1.3</v>
       </c>
       <c r="S77" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="T77" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U77" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V77" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="W77" t="n">
         <v>1.53</v>
@@ -10927,19 +10927,19 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.21</v>
+        <v>1.68</v>
       </c>
       <c r="G78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J78" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="K78" t="n">
         <v>980</v>
@@ -10975,10 +10975,10 @@
         <v>1.01</v>
       </c>
       <c r="V78" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W78" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X78" t="n">
         <v>1000</v>
@@ -11065,7 +11065,7 @@
         <v>3.05</v>
       </c>
       <c r="G79" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="H79" t="n">
         <v>2.32</v>
@@ -11077,10 +11077,10 @@
         <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L79" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M79" t="n">
         <v>1.07</v>
@@ -11095,7 +11095,7 @@
         <v>1.76</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R79" t="n">
         <v>1.29</v>
@@ -11104,16 +11104,16 @@
         <v>3.8</v>
       </c>
       <c r="T79" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U79" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V79" t="n">
         <v>1.6</v>
       </c>
       <c r="W79" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X79" t="n">
         <v>15</v>
@@ -11128,7 +11128,7 @@
         <v>980</v>
       </c>
       <c r="AB79" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AC79" t="n">
         <v>9.199999999999999</v>
@@ -11152,7 +11152,7 @@
         <v>980</v>
       </c>
       <c r="AJ79" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK79" t="n">
         <v>980</v>
@@ -11167,7 +11167,7 @@
         <v>55</v>
       </c>
       <c r="AO79" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="80">
@@ -11197,7 +11197,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G80" t="n">
         <v>2.44</v>
@@ -11206,25 +11206,25 @@
         <v>3.3</v>
       </c>
       <c r="I80" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J80" t="n">
         <v>3.3</v>
       </c>
       <c r="K80" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
       </c>
       <c r="M80" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O80" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P80" t="n">
         <v>1.8</v>
@@ -11233,76 +11233,76 @@
         <v>2.06</v>
       </c>
       <c r="R80" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S80" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="T80" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U80" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V80" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W80" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X80" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z80" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA80" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB80" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC80" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD80" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE80" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF80" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG80" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH80" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI80" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK80" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL80" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM80" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN80" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO80" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="81">
@@ -11332,22 +11332,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="G81" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="H81" t="n">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="J81" t="n">
-        <v>1.02</v>
+        <v>2.94</v>
       </c>
       <c r="K81" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L81" t="n">
         <v>1.01</v>
@@ -11356,88 +11356,898 @@
         <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="O81" t="n">
         <v>1.01</v>
       </c>
       <c r="P81" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.02</v>
+        <v>2.1</v>
       </c>
       <c r="R81" t="n">
         <v>1.14</v>
       </c>
       <c r="S81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S82" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U82" t="n">
         <v>1.49</v>
       </c>
-      <c r="T81" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V81" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W81" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>1000</v>
+      <c r="V82" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X82" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Macara</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X83" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Charlotte FC</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X84" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X85" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>FC Juarez</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H86" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K86" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W86" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X86" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Llaneros FC</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I87" t="n">
+        <v>24</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>950</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-07.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="H2" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -697,16 +697,16 @@
         <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S2" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="T2" t="n">
         <v>1.46</v>
@@ -715,22 +715,22 @@
         <v>3.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="n">
         <v>19</v>
@@ -739,13 +739,13 @@
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -757,22 +757,22 @@
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>25</v>
       </c>
       <c r="AM2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -805,55 +805,55 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
         <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -865,19 +865,19 @@
         <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB3" t="n">
         <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
         <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AF3" t="n">
         <v>980</v>
@@ -889,7 +889,7 @@
         <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ3" t="n">
         <v>980</v>
@@ -898,7 +898,7 @@
         <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G4" t="n">
         <v>2.06</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.1</v>
-      </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -967,13 +967,13 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
         <v>2.88</v>
@@ -985,16 +985,16 @@
         <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
         <v>30</v>
@@ -1006,7 +1006,7 @@
         <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>15.5</v>
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM4" t="n">
         <v>75</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W5" t="n">
         <v>2.02</v>
       </c>
-      <c r="I5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>950</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="G6" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
         <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U7" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
         <v>44</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK7" t="n">
         <v>30</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>32</v>
       </c>
       <c r="AL7" t="n">
         <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
         <v>2.82</v>
@@ -1507,82 +1507,82 @@
         <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R8" t="n">
         <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AF8" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1615,73 +1615,73 @@
         <v>2.34</v>
       </c>
       <c r="G9" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
         <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="n">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
         <v>17</v>
@@ -1693,28 +1693,28 @@
         <v>19.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AJ9" t="n">
         <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
         <v>980</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G10" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="H10" t="n">
-        <v>1.82</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>2.88</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I11" t="n">
         <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
         <v>3.35</v>
@@ -1912,19 +1912,19 @@
         <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
         <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
         <v>1.89</v>
@@ -1933,7 +1933,7 @@
         <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X11" t="n">
         <v>15.5</v>
@@ -1948,16 +1948,16 @@
         <v>160</v>
       </c>
       <c r="AB11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="n">
         <v>10.5</v>
@@ -1969,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>19.5</v>
@@ -1978,13 +1978,13 @@
         <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2047,7 +2047,7 @@
         <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
         <v>1.64</v>
@@ -2056,25 +2056,25 @@
         <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
         <v>980</v>
@@ -2095,19 +2095,19 @@
         <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AG12" t="n">
         <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AK12" t="n">
         <v>980</v>
@@ -2116,13 +2116,13 @@
         <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2176,7 +2176,7 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.4</v>
@@ -2311,13 +2311,13 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q14" t="n">
         <v>2.22</v>
@@ -2329,70 +2329,70 @@
         <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="X14" t="n">
-        <v>960</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
         <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="AE14" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>960</v>
+        <v>44</v>
       </c>
       <c r="AG14" t="n">
-        <v>960</v>
+        <v>26</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2446,7 +2446,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.32</v>
@@ -2464,19 +2464,19 @@
         <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W15" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2488,22 +2488,22 @@
         <v>150</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2515,16 +2515,16 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2563,10 +2563,10 @@
         <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2587,13 +2587,13 @@
         <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q16" t="n">
         <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
         <v>2.86</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G17" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,85 +2716,85 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="T17" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="V17" t="n">
         <v>1.09</v>
       </c>
       <c r="W17" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y17" t="n">
         <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I18" t="n">
         <v>2.42</v>
@@ -2866,7 +2866,7 @@
         <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="T18" t="n">
         <v>1.71</v>
@@ -2920,13 +2920,13 @@
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AL18" t="n">
         <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN18" t="n">
         <v>44</v>
@@ -2965,52 +2965,52 @@
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I19" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P19" t="n">
         <v>1.41</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.86</v>
-      </c>
       <c r="Q19" t="n">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
         <v>2.08</v>
       </c>
       <c r="V19" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
         <v>1.43</v>
@@ -3034,7 +3034,7 @@
         <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>34</v>
@@ -3109,7 +3109,7 @@
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
         <v>4.4</v>
@@ -3157,7 +3157,7 @@
         <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3184,7 +3184,7 @@
         <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -3196,7 +3196,7 @@
         <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
         <v>12.5</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G21" t="n">
         <v>1.28</v>
@@ -3241,31 +3241,31 @@
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J21" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K21" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L21" t="n">
         <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>3.45</v>
+        <v>2.08</v>
       </c>
       <c r="O21" t="n">
         <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="R21" t="n">
         <v>1.54</v>
@@ -3274,19 +3274,19 @@
         <v>2.28</v>
       </c>
       <c r="T21" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="U21" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="V21" t="n">
         <v>1.06</v>
       </c>
       <c r="W21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3322,7 +3322,7 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="G22" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H22" t="n">
         <v>6.8</v>
       </c>
       <c r="I22" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.33</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.31</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S22" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T22" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W22" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3436,10 +3436,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3457,7 +3457,7 @@
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK22" t="n">
         <v>22</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G23" t="n">
         <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I23" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
         <v>3.7</v>
@@ -3526,13 +3526,13 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O23" t="n">
         <v>1.35</v>
       </c>
       <c r="P23" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q23" t="n">
         <v>2.02</v>
@@ -3550,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W23" t="n">
         <v>1.45</v>
@@ -3559,34 +3559,34 @@
         <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
         <v>9.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
         <v>3.55</v>
@@ -3646,22 +3646,22 @@
         <v>2.18</v>
       </c>
       <c r="I24" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
@@ -3685,7 +3685,7 @@
         <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W24" t="n">
         <v>1.39</v>
@@ -3694,7 +3694,7 @@
         <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
         <v>19</v>
@@ -3709,7 +3709,7 @@
         <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -3721,13 +3721,13 @@
         <v>17.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
         <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK24" t="n">
         <v>44</v>
@@ -3736,10 +3736,10 @@
         <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO24" t="n">
         <v>18</v>
@@ -3772,31 +3772,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="G25" t="n">
         <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I25" t="n">
         <v>2.82</v>
       </c>
       <c r="J25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -3805,76 +3805,76 @@
         <v>1.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R25" t="n">
         <v>1.31</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T25" t="n">
         <v>1.76</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V25" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W25" t="n">
         <v>1.47</v>
       </c>
       <c r="X25" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="AB25" t="n">
         <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="n">
         <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AO25" t="n">
         <v>32</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="G26" t="n">
         <v>1.72</v>
@@ -3916,7 +3916,7 @@
         <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J26" t="n">
         <v>4.1</v>
@@ -3931,22 +3931,22 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>2.28</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P26" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T26" t="n">
         <v>1.62</v>
@@ -3955,64 +3955,64 @@
         <v>2.28</v>
       </c>
       <c r="V26" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="W26" t="n">
         <v>2.38</v>
       </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y26" t="n">
         <v>32</v>
       </c>
       <c r="Z26" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AL26" t="n">
         <v>32</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN26" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4048,10 +4048,10 @@
         <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="I27" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J27" t="n">
         <v>10</v>
@@ -4069,28 +4069,28 @@
         <v>7.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P27" t="n">
         <v>3.15</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R27" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S27" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="T27" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U27" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V27" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="W27" t="n">
         <v>1.04</v>
@@ -4099,25 +4099,25 @@
         <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA27" t="n">
         <v>10.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="AC27" t="n">
         <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
         <v>260</v>
@@ -4141,13 +4141,13 @@
         <v>270</v>
       </c>
       <c r="AM27" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="28">
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G28" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H28" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K28" t="n">
         <v>3.95</v>
@@ -4201,61 +4201,61 @@
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P28" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S28" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U28" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="V28" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W28" t="n">
         <v>1.6</v>
       </c>
       <c r="X28" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="Y28" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA28" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD28" t="n">
         <v>13.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -4264,25 +4264,25 @@
         <v>14.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="n">
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G29" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="H29" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="I29" t="n">
         <v>2.66</v>
       </c>
       <c r="J29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K29" t="n">
         <v>3.9</v>
@@ -4336,22 +4336,22 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O29" t="n">
         <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T29" t="n">
         <v>1.55</v>
@@ -4363,61 +4363,61 @@
         <v>1.6</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X29" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
         <v>15.5</v>
       </c>
       <c r="Z29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF29" t="n">
         <v>21</v>
       </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO29" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="30">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G30" t="n">
         <v>4.5</v>
@@ -4462,25 +4462,25 @@
         <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L30" t="n">
         <v>1.27</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.6</v>
+        <v>2.26</v>
       </c>
       <c r="O30" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P30" t="n">
         <v>2.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
         <v>1.5</v>
@@ -4501,7 +4501,7 @@
         <v>1.28</v>
       </c>
       <c r="X30" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="Y30" t="n">
         <v>14</v>
@@ -4510,10 +4510,10 @@
         <v>16.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AB30" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AC30" t="n">
         <v>11.5</v>
@@ -4525,7 +4525,7 @@
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AG30" t="n">
         <v>21</v>
@@ -4534,19 +4534,19 @@
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ30" t="n">
         <v>100</v>
       </c>
       <c r="AK30" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AL30" t="n">
         <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
         <v>980</v>
@@ -4591,7 +4591,7 @@
         <v>2.8</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J31" t="n">
         <v>3.2</v>
@@ -4603,37 +4603,37 @@
         <v>1.46</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
         <v>3.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P31" t="n">
         <v>1.76</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
         <v>1.29</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U31" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>1.49</v>
       </c>
       <c r="W31" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="X31" t="n">
         <v>14.5</v>
@@ -4669,7 +4669,7 @@
         <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AJ31" t="n">
         <v>55</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G32" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J32" t="n">
         <v>3.85</v>
@@ -4741,37 +4741,37 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O32" t="n">
         <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R32" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S32" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T32" t="n">
         <v>1.59</v>
       </c>
       <c r="U32" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="V32" t="n">
         <v>1.45</v>
       </c>
       <c r="W32" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
         <v>17</v>
@@ -4780,22 +4780,22 @@
         <v>26</v>
       </c>
       <c r="AA32" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AB32" t="n">
         <v>14.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD32" t="n">
         <v>14.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AG32" t="n">
         <v>12</v>
@@ -4807,22 +4807,22 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL32" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM32" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
@@ -4852,58 +4852,58 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G33" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
         <v>4.2</v>
       </c>
       <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.33</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W33" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="X33" t="n">
         <v>24</v>
@@ -4912,7 +4912,7 @@
         <v>21</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
@@ -4927,7 +4927,7 @@
         <v>18.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF33" t="n">
         <v>18.5</v>
@@ -4936,19 +4936,19 @@
         <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
@@ -4987,40 +4987,40 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="G34" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I34" t="n">
         <v>2.64</v>
       </c>
-      <c r="I34" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K34" t="n">
         <v>3.35</v>
       </c>
       <c r="L34" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O34" t="n">
         <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R34" t="n">
         <v>1.24</v>
@@ -5035,13 +5035,13 @@
         <v>1.92</v>
       </c>
       <c r="V34" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="W34" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y34" t="n">
         <v>11</v>
@@ -5059,10 +5059,10 @@
         <v>8.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE34" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
         <v>24</v>
@@ -5089,7 +5089,7 @@
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
         <v>42</v>
@@ -5122,58 +5122,58 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="G35" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H35" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="I35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.25</v>
       </c>
-      <c r="J35" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="O35" t="n">
         <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="R35" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="S35" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T35" t="n">
-        <v>1.64</v>
+        <v>1.03</v>
       </c>
       <c r="U35" t="n">
-        <v>2.22</v>
+        <v>1.03</v>
       </c>
       <c r="V35" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W35" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5191,7 +5191,7 @@
         <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
@@ -5275,7 +5275,7 @@
         <v>3.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
@@ -5344,7 +5344,7 @@
         <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ36" t="n">
         <v>60</v>
@@ -5356,7 +5356,7 @@
         <v>55</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN36" t="n">
         <v>34</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G37" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.55</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5425,7 +5425,7 @@
         <v>1.86</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R37" t="n">
         <v>1.32</v>
@@ -5440,64 +5440,64 @@
         <v>2.06</v>
       </c>
       <c r="V37" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W37" t="n">
         <v>1.69</v>
       </c>
       <c r="X37" t="n">
-        <v>960</v>
+        <v>26</v>
       </c>
       <c r="Y37" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Z37" t="n">
         <v>980</v>
       </c>
       <c r="AA37" t="n">
-        <v>65</v>
+        <v>470</v>
       </c>
       <c r="AB37" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AC37" t="n">
         <v>8.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE37" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AF37" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AG37" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AH37" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AJ37" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK37" t="n">
         <v>980</v>
       </c>
       <c r="AL37" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AM37" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO37" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -5530,10 +5530,10 @@
         <v>5.1</v>
       </c>
       <c r="G38" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="H38" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="I38" t="n">
         <v>1.84</v>
@@ -5545,70 +5545,70 @@
         <v>3.95</v>
       </c>
       <c r="L38" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>2.94</v>
+        <v>2.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P38" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="R38" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S38" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.08</v>
+        <v>1.03</v>
       </c>
       <c r="U38" t="n">
-        <v>1.73</v>
+        <v>1.03</v>
       </c>
       <c r="V38" t="n">
         <v>2.18</v>
       </c>
       <c r="W38" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X38" t="n">
         <v>12.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="Z38" t="n">
         <v>11.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB38" t="n">
         <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD38" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF38" t="n">
         <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="n">
         <v>1000</v>
@@ -5632,7 +5632,7 @@
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G39" t="n">
         <v>2.76</v>
@@ -5683,19 +5683,19 @@
         <v>1.46</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>3.05</v>
+        <v>2.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R39" t="n">
         <v>1.26</v>
@@ -5704,10 +5704,10 @@
         <v>3.85</v>
       </c>
       <c r="T39" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="U39" t="n">
-        <v>1.94</v>
+        <v>1.03</v>
       </c>
       <c r="V39" t="n">
         <v>1.41</v>
@@ -5716,34 +5716,34 @@
         <v>1.56</v>
       </c>
       <c r="X39" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Y39" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH39" t="n">
         <v>1000</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G40" t="n">
         <v>2.98</v>
@@ -5830,10 +5830,10 @@
         <v>1.79</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R40" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S40" t="n">
         <v>3.3</v>
@@ -5866,7 +5866,7 @@
         <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD40" t="n">
         <v>1000</v>
@@ -5953,7 +5953,7 @@
         <v>1.46</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
         <v>3</v>
@@ -5965,19 +5965,19 @@
         <v>1.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R41" t="n">
         <v>1.26</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T41" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U41" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V41" t="n">
         <v>1.25</v>
@@ -5992,7 +5992,7 @@
         <v>16.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AA41" t="n">
         <v>140</v>
@@ -6001,13 +6001,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE41" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="AF41" t="n">
         <v>12.5</v>
@@ -6019,25 +6019,25 @@
         <v>26</v>
       </c>
       <c r="AI41" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="AJ41" t="n">
         <v>30</v>
       </c>
       <c r="AK41" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL41" t="n">
         <v>55</v>
       </c>
       <c r="AM41" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
         <v>23</v>
       </c>
       <c r="AO41" t="n">
-        <v>110</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G42" t="n">
         <v>2.52</v>
@@ -6112,10 +6112,10 @@
         <v>1.89</v>
       </c>
       <c r="U42" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V42" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W42" t="n">
         <v>1.65</v>
@@ -6151,13 +6151,13 @@
         <v>14</v>
       </c>
       <c r="AH42" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ42" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AK42" t="n">
         <v>36</v>
@@ -6205,13 +6205,13 @@
         <v>2.3</v>
       </c>
       <c r="G43" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H43" t="n">
         <v>3.15</v>
       </c>
       <c r="I43" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J43" t="n">
         <v>3.05</v>
@@ -6220,7 +6220,7 @@
         <v>3.45</v>
       </c>
       <c r="L43" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
@@ -6232,10 +6232,10 @@
         <v>1.47</v>
       </c>
       <c r="P43" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R43" t="n">
         <v>1.21</v>
@@ -6247,31 +6247,31 @@
         <v>1.98</v>
       </c>
       <c r="U43" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="V43" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W43" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X43" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="Y43" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA43" t="n">
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD43" t="n">
         <v>18.5</v>
@@ -6280,10 +6280,10 @@
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH43" t="n">
         <v>1000</v>
@@ -6406,7 +6406,7 @@
         <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="G45" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="H45" t="n">
         <v>4.4</v>
       </c>
       <c r="I45" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K45" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.39</v>
@@ -6502,7 +6502,7 @@
         <v>1.01</v>
       </c>
       <c r="P45" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="Q45" t="n">
         <v>2.06</v>
@@ -6526,7 +6526,7 @@
         <v>1.01</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y45" t="n">
         <v>1000</v>
@@ -6538,10 +6538,10 @@
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD45" t="n">
         <v>1000</v>
@@ -6550,31 +6550,31 @@
         <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI45" t="n">
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="G46" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
       <c r="H46" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="I46" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K46" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,22 +6631,22 @@
         <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="O46" t="n">
         <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q46" t="n">
         <v>1.33</v>
       </c>
       <c r="R46" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="S46" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T46" t="n">
         <v>1.03</v>
@@ -6655,64 +6655,64 @@
         <v>1.03</v>
       </c>
       <c r="V46" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="W46" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK46" t="n">
         <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="47">
@@ -6760,34 +6760,34 @@
         <v>4.2</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="O47" t="n">
         <v>1.34</v>
       </c>
       <c r="P47" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="R47" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S47" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.97</v>
+        <v>1.76</v>
       </c>
       <c r="U47" t="n">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="V47" t="n">
         <v>1.17</v>
@@ -6796,16 +6796,16 @@
         <v>2.42</v>
       </c>
       <c r="X47" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AA47" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB47" t="n">
         <v>9.199999999999999</v>
@@ -6814,7 +6814,7 @@
         <v>11</v>
       </c>
       <c r="AD47" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
@@ -6823,28 +6823,28 @@
         <v>10.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ47" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK47" t="n">
         <v>20</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM47" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6889,31 +6889,31 @@
         <v>4.6</v>
       </c>
       <c r="J48" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L48" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O48" t="n">
         <v>1.37</v>
       </c>
       <c r="P48" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q48" t="n">
         <v>2.06</v>
       </c>
       <c r="R48" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S48" t="n">
         <v>3.7</v>
@@ -6931,10 +6931,10 @@
         <v>1.92</v>
       </c>
       <c r="X48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y48" t="n">
         <v>15</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>17</v>
       </c>
       <c r="Z48" t="n">
         <v>34</v>
@@ -6946,37 +6946,37 @@
         <v>10.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD48" t="n">
         <v>21</v>
       </c>
       <c r="AE48" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="AF48" t="n">
         <v>15</v>
       </c>
       <c r="AG48" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH48" t="n">
         <v>24</v>
       </c>
       <c r="AI48" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AJ48" t="n">
         <v>30</v>
       </c>
       <c r="AK48" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL48" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AM48" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN48" t="n">
         <v>21</v>
@@ -7015,13 +7015,13 @@
         <v>3.25</v>
       </c>
       <c r="G49" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H49" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="I49" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J49" t="n">
         <v>3.1</v>
@@ -7036,16 +7036,16 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O49" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R49" t="n">
         <v>1.24</v>
@@ -7060,25 +7060,25 @@
         <v>1.9</v>
       </c>
       <c r="V49" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W49" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X49" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y49" t="n">
         <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AA49" t="n">
         <v>980</v>
       </c>
       <c r="AB49" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AC49" t="n">
         <v>8.800000000000001</v>
@@ -7099,22 +7099,22 @@
         <v>25</v>
       </c>
       <c r="AI49" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AJ49" t="n">
-        <v>90</v>
+        <v>530</v>
       </c>
       <c r="AK49" t="n">
         <v>980</v>
       </c>
       <c r="AL49" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="AM49" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN49" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AO49" t="n">
         <v>980</v>
@@ -7156,13 +7156,13 @@
         <v>3.8</v>
       </c>
       <c r="I50" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J50" t="n">
         <v>3.15</v>
       </c>
       <c r="K50" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L50" t="n">
         <v>1.55</v>
@@ -7171,13 +7171,13 @@
         <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O50" t="n">
         <v>1.48</v>
       </c>
       <c r="P50" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q50" t="n">
         <v>2.38</v>
@@ -7192,16 +7192,16 @@
         <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V50" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W50" t="n">
         <v>1.75</v>
       </c>
       <c r="X50" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y50" t="n">
         <v>14.5</v>
@@ -7213,7 +7213,7 @@
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC50" t="n">
         <v>9</v>
@@ -7222,7 +7222,7 @@
         <v>21</v>
       </c>
       <c r="AE50" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AF50" t="n">
         <v>15.5</v>
@@ -7231,10 +7231,10 @@
         <v>14</v>
       </c>
       <c r="AH50" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI50" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="AJ50" t="n">
         <v>38</v>
@@ -7243,10 +7243,10 @@
         <v>36</v>
       </c>
       <c r="AL50" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AM50" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN50" t="n">
         <v>32</v>
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I51" t="n">
         <v>4.4</v>
@@ -7297,10 +7297,10 @@
         <v>3.55</v>
       </c>
       <c r="K51" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L51" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -7324,7 +7324,7 @@
         <v>4.1</v>
       </c>
       <c r="T51" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U51" t="n">
         <v>1.87</v>
@@ -7333,13 +7333,13 @@
         <v>1.29</v>
       </c>
       <c r="W51" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X51" t="n">
         <v>12.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z51" t="n">
         <v>32</v>
@@ -7372,22 +7372,22 @@
         <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL51" t="n">
         <v>1000</v>
       </c>
       <c r="AM51" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G52" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H52" t="n">
         <v>2.98</v>
@@ -7432,28 +7432,28 @@
         <v>3.3</v>
       </c>
       <c r="K52" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L52" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M52" t="n">
         <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O52" t="n">
         <v>1.35</v>
       </c>
       <c r="P52" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R52" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S52" t="n">
         <v>3.5</v>
@@ -7462,61 +7462,61 @@
         <v>1.74</v>
       </c>
       <c r="U52" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V52" t="n">
         <v>1.44</v>
       </c>
       <c r="W52" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X52" t="n">
         <v>16.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z52" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AA52" t="n">
-        <v>65</v>
+        <v>440</v>
       </c>
       <c r="AB52" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC52" t="n">
         <v>9.4</v>
       </c>
       <c r="AD52" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AE52" t="n">
         <v>980</v>
       </c>
       <c r="AF52" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG52" t="n">
         <v>20</v>
       </c>
-      <c r="AG52" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH52" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI52" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AJ52" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK52" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AL52" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AM52" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN52" t="n">
         <v>29</v>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="G53" t="n">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="H53" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="I53" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="J53" t="n">
         <v>4.2</v>
@@ -7576,88 +7576,88 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="O53" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P53" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="R53" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="S53" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="T53" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U53" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="V53" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="W53" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="X53" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y53" t="n">
         <v>27</v>
       </c>
       <c r="Z53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE53" t="n">
         <v>32</v>
       </c>
-      <c r="AA53" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB53" t="n">
+      <c r="AF53" t="n">
         <v>27</v>
       </c>
-      <c r="AC53" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF53" t="n">
+      <c r="AG53" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL53" t="n">
         <v>30</v>
       </c>
-      <c r="AG53" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>32</v>
-      </c>
       <c r="AM53" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AN53" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="H54" t="n">
-        <v>1.67</v>
+        <v>2.86</v>
       </c>
       <c r="I54" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K54" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7711,19 +7711,19 @@
         <v>1.02</v>
       </c>
       <c r="N54" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="O54" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P54" t="n">
         <v>1.24</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R54" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="S54" t="n">
         <v>1.84</v>
@@ -7735,64 +7735,64 @@
         <v>1.03</v>
       </c>
       <c r="V54" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W54" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE54" t="n">
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN54" t="n">
         <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="55">
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
       <c r="G55" t="n">
-        <v>2.98</v>
+        <v>9.4</v>
       </c>
       <c r="H55" t="n">
-        <v>2.48</v>
+        <v>1.82</v>
       </c>
       <c r="I55" t="n">
-        <v>3.1</v>
+        <v>980</v>
       </c>
       <c r="J55" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K55" t="n">
-        <v>5.7</v>
+        <v>980</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7846,19 +7846,19 @@
         <v>1.02</v>
       </c>
       <c r="N55" t="n">
-        <v>5.1</v>
+        <v>1.05</v>
       </c>
       <c r="O55" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="P55" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="R55" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="S55" t="n">
         <v>2.04</v>
@@ -7891,7 +7891,7 @@
         <v>980</v>
       </c>
       <c r="AC55" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD55" t="n">
         <v>980</v>
@@ -7921,13 +7921,13 @@
         <v>980</v>
       </c>
       <c r="AM55" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN55" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO55" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G56" t="n">
         <v>1.79</v>
@@ -7975,13 +7975,13 @@
         <v>4.9</v>
       </c>
       <c r="L56" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O56" t="n">
         <v>1.18</v>
@@ -7990,19 +7990,19 @@
         <v>2.48</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R56" t="n">
         <v>1.61</v>
       </c>
       <c r="S56" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T56" t="n">
         <v>1.6</v>
       </c>
       <c r="U56" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V56" t="n">
         <v>1.23</v>
@@ -8017,40 +8017,40 @@
         <v>980</v>
       </c>
       <c r="Z56" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AA56" t="n">
         <v>130</v>
       </c>
       <c r="AB56" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC56" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AE56" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AF56" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="AG56" t="n">
         <v>13</v>
       </c>
       <c r="AH56" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI56" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AJ56" t="n">
         <v>22</v>
       </c>
       <c r="AK56" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AL56" t="n">
         <v>980</v>
@@ -8059,7 +8059,7 @@
         <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8104,40 +8104,40 @@
         <v>10</v>
       </c>
       <c r="J57" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K57" t="n">
         <v>6.2</v>
       </c>
       <c r="L57" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O57" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P57" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="R57" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="S57" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U57" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V57" t="n">
         <v>1.11</v>
@@ -8149,55 +8149,55 @@
         <v>32</v>
       </c>
       <c r="Y57" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Z57" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA57" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AB57" t="n">
         <v>12</v>
       </c>
       <c r="AC57" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AE57" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF57" t="n">
         <v>10.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH57" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI57" t="n">
         <v>110</v>
       </c>
       <c r="AJ57" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AK57" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL57" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM57" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="G58" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H58" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I58" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J58" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K58" t="n">
         <v>4.6</v>
@@ -8251,19 +8251,19 @@
         <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O58" t="n">
         <v>1.17</v>
       </c>
       <c r="P58" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R58" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S58" t="n">
         <v>2.22</v>
@@ -8275,10 +8275,10 @@
         <v>2.66</v>
       </c>
       <c r="V58" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W58" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8377,10 +8377,10 @@
         <v>4.1</v>
       </c>
       <c r="K59" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L59" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
@@ -8455,7 +8455,7 @@
         <v>60</v>
       </c>
       <c r="AK59" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL59" t="n">
         <v>36</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G60" t="n">
         <v>3.1</v>
       </c>
       <c r="H60" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I60" t="n">
         <v>2.58</v>
       </c>
       <c r="J60" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K60" t="n">
         <v>4.2</v>
@@ -8521,7 +8521,7 @@
         <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O60" t="n">
         <v>1.21</v>
@@ -8530,7 +8530,7 @@
         <v>2.3</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R60" t="n">
         <v>1.52</v>
@@ -8539,10 +8539,10 @@
         <v>2.62</v>
       </c>
       <c r="T60" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U60" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V60" t="n">
         <v>1.63</v>
@@ -8596,7 +8596,7 @@
         <v>42</v>
       </c>
       <c r="AM60" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN60" t="n">
         <v>25</v>
@@ -8635,7 +8635,7 @@
         <v>1.5</v>
       </c>
       <c r="G61" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H61" t="n">
         <v>5.8</v>
@@ -8647,16 +8647,16 @@
         <v>5</v>
       </c>
       <c r="K61" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="L61" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M61" t="n">
         <v>1.02</v>
       </c>
       <c r="N61" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O61" t="n">
         <v>1.13</v>
@@ -8665,10 +8665,10 @@
         <v>3.05</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R61" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S61" t="n">
         <v>2</v>
@@ -8683,7 +8683,7 @@
         <v>1.15</v>
       </c>
       <c r="W61" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8707,13 +8707,13 @@
         <v>1000</v>
       </c>
       <c r="AE61" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AF61" t="n">
         <v>16</v>
       </c>
       <c r="AG61" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AH61" t="n">
         <v>980</v>
@@ -8728,7 +8728,7 @@
         <v>17.5</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM61" t="n">
         <v>1000</v>
@@ -8770,22 +8770,22 @@
         <v>1.38</v>
       </c>
       <c r="G62" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="I62" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J62" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="K62" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L62" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
@@ -8803,22 +8803,22 @@
         <v>1.43</v>
       </c>
       <c r="R62" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S62" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T62" t="n">
         <v>1.74</v>
       </c>
       <c r="U62" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V62" t="n">
         <v>1.11</v>
       </c>
       <c r="W62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X62" t="n">
         <v>46</v>
@@ -8854,19 +8854,19 @@
         <v>1000</v>
       </c>
       <c r="AI62" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AJ62" t="n">
         <v>15</v>
       </c>
       <c r="AK62" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL62" t="n">
         <v>1000</v>
       </c>
       <c r="AM62" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN62" t="n">
         <v>4.6</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G63" t="n">
         <v>3.3</v>
@@ -8935,7 +8935,7 @@
         <v>2.38</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R63" t="n">
         <v>1.55</v>
@@ -8944,7 +8944,7 @@
         <v>2.56</v>
       </c>
       <c r="T63" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U63" t="n">
         <v>2.5</v>
@@ -9001,10 +9001,10 @@
         <v>44</v>
       </c>
       <c r="AM63" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN63" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO63" t="n">
         <v>15.5</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="G64" t="n">
         <v>3.65</v>
@@ -9046,19 +9046,19 @@
         <v>2.08</v>
       </c>
       <c r="I64" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J64" t="n">
         <v>3.9</v>
       </c>
       <c r="K64" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L64" t="n">
         <v>1.29</v>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N64" t="n">
         <v>5.3</v>
@@ -9067,13 +9067,13 @@
         <v>1.19</v>
       </c>
       <c r="P64" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q64" t="n">
         <v>1.51</v>
       </c>
       <c r="R64" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S64" t="n">
         <v>2.42</v>
@@ -9085,25 +9085,25 @@
         <v>2.48</v>
       </c>
       <c r="V64" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W64" t="n">
         <v>1.37</v>
       </c>
       <c r="X64" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y64" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z64" t="n">
         <v>20</v>
       </c>
       <c r="AA64" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB64" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC64" t="n">
         <v>12</v>
@@ -9118,13 +9118,13 @@
         <v>1000</v>
       </c>
       <c r="AG64" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AH64" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI64" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ64" t="n">
         <v>1000</v>
@@ -9133,10 +9133,10 @@
         <v>1000</v>
       </c>
       <c r="AL64" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM64" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN64" t="n">
         <v>28</v>
@@ -9172,19 +9172,19 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="G65" t="n">
         <v>1.87</v>
       </c>
       <c r="H65" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I65" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J65" t="n">
-        <v>2.14</v>
+        <v>3.75</v>
       </c>
       <c r="K65" t="n">
         <v>1000</v>
@@ -9208,7 +9208,7 @@
         <v>1.01</v>
       </c>
       <c r="R65" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S65" t="n">
         <v>1.62</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G66" t="n">
         <v>1.54</v>
@@ -9322,19 +9322,19 @@
         <v>4.6</v>
       </c>
       <c r="K66" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L66" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="O66" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P66" t="n">
         <v>2.34</v>
@@ -9343,16 +9343,16 @@
         <v>1.52</v>
       </c>
       <c r="R66" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S66" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T66" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U66" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
         <v>1.12</v>
@@ -9361,7 +9361,7 @@
         <v>2.84</v>
       </c>
       <c r="X66" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y66" t="n">
         <v>1000</v>
@@ -9373,19 +9373,19 @@
         <v>1000</v>
       </c>
       <c r="AB66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC66" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="AD66" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE66" t="n">
         <v>1000</v>
       </c>
       <c r="AF66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG66" t="n">
         <v>11</v>
@@ -9409,7 +9409,7 @@
         <v>1000</v>
       </c>
       <c r="AN66" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AO66" t="n">
         <v>1000</v>
@@ -9442,16 +9442,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G67" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="H67" t="n">
         <v>2.44</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J67" t="n">
         <v>3.2</v>
@@ -9466,22 +9466,22 @@
         <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O67" t="n">
         <v>1.24</v>
       </c>
       <c r="P67" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="R67" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S67" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T67" t="n">
         <v>1.03</v>
@@ -9490,10 +9490,10 @@
         <v>1.03</v>
       </c>
       <c r="V67" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W67" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9511,7 +9511,7 @@
         <v>1000</v>
       </c>
       <c r="AC67" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD67" t="n">
         <v>1000</v>
@@ -9577,16 +9577,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="G68" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="H68" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="I68" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="J68" t="n">
         <v>3.3</v>
@@ -9598,7 +9598,7 @@
         <v>1.51</v>
       </c>
       <c r="M68" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N68" t="n">
         <v>2.98</v>
@@ -9607,82 +9607,82 @@
         <v>1.46</v>
       </c>
       <c r="P68" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R68" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S68" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T68" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U68" t="n">
         <v>1.89</v>
       </c>
       <c r="V68" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="W68" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X68" t="n">
         <v>11</v>
       </c>
       <c r="Y68" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z68" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB68" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD68" t="n">
         <v>11.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF68" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AG68" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH68" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI68" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="AJ68" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AL68" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AM68" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN68" t="n">
         <v>1000</v>
       </c>
       <c r="AO68" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
@@ -9718,7 +9718,7 @@
         <v>3.4</v>
       </c>
       <c r="H69" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I69" t="n">
         <v>2.52</v>
@@ -9727,7 +9727,7 @@
         <v>3.4</v>
       </c>
       <c r="K69" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L69" t="n">
         <v>1.32</v>
@@ -9742,7 +9742,7 @@
         <v>1.28</v>
       </c>
       <c r="P69" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q69" t="n">
         <v>1.84</v>
@@ -9775,10 +9775,10 @@
         <v>19.5</v>
       </c>
       <c r="AA69" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AB69" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC69" t="n">
         <v>9.800000000000001</v>
@@ -9793,28 +9793,28 @@
         <v>24</v>
       </c>
       <c r="AG69" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH69" t="n">
         <v>20</v>
       </c>
       <c r="AI69" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AJ69" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AK69" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AL69" t="n">
         <v>55</v>
       </c>
       <c r="AM69" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN69" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO69" t="n">
         <v>22</v>
@@ -9847,31 +9847,31 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G70" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H70" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I70" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J70" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="K70" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L70" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M70" t="n">
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="O70" t="n">
         <v>1.01</v>
@@ -9886,7 +9886,7 @@
         <v>1.18</v>
       </c>
       <c r="S70" t="n">
-        <v>3.2</v>
+        <v>2.16</v>
       </c>
       <c r="T70" t="n">
         <v>1.03</v>
@@ -9895,52 +9895,52 @@
         <v>1.03</v>
       </c>
       <c r="V70" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W70" t="n">
         <v>1.51</v>
       </c>
       <c r="X70" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y70" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA70" t="n">
         <v>1000</v>
       </c>
       <c r="AB70" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC70" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE70" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF70" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG70" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI70" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ70" t="n">
         <v>55</v>
       </c>
       <c r="AK70" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AL70" t="n">
         <v>70</v>
@@ -9949,10 +9949,10 @@
         <v>1000</v>
       </c>
       <c r="AN70" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO70" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71">
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="G71" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H71" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I71" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J71" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K71" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L71" t="n">
         <v>1.54</v>
@@ -10006,7 +10006,7 @@
         <v>1.11</v>
       </c>
       <c r="N71" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="O71" t="n">
         <v>1.51</v>
@@ -10015,7 +10015,7 @@
         <v>1.56</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R71" t="n">
         <v>1.2</v>
@@ -10024,16 +10024,16 @@
         <v>4.8</v>
       </c>
       <c r="T71" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U71" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="V71" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W71" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X71" t="n">
         <v>9.800000000000001</v>
@@ -10042,7 +10042,7 @@
         <v>13.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AA71" t="n">
         <v>1000</v>
@@ -10054,7 +10054,7 @@
         <v>9</v>
       </c>
       <c r="AD71" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AE71" t="n">
         <v>1000</v>
@@ -10066,25 +10066,25 @@
         <v>11.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI71" t="n">
         <v>1000</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK71" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL71" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM71" t="n">
         <v>1000</v>
       </c>
       <c r="AN71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO71" t="n">
         <v>1000</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G72" t="n">
         <v>3.3</v>
       </c>
       <c r="H72" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I72" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J72" t="n">
         <v>3.3</v>
       </c>
       <c r="K72" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L72" t="n">
         <v>1.31</v>
@@ -10147,10 +10147,10 @@
         <v>1.27</v>
       </c>
       <c r="P72" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R72" t="n">
         <v>1.4</v>
@@ -10165,7 +10165,7 @@
         <v>2.24</v>
       </c>
       <c r="V72" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W72" t="n">
         <v>1.43</v>
@@ -10180,7 +10180,7 @@
         <v>1000</v>
       </c>
       <c r="AA72" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB72" t="n">
         <v>16.5</v>
@@ -10189,7 +10189,7 @@
         <v>10</v>
       </c>
       <c r="AD72" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE72" t="n">
         <v>1000</v>
@@ -10198,10 +10198,10 @@
         <v>28</v>
       </c>
       <c r="AG72" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH72" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI72" t="n">
         <v>1000</v>
@@ -10222,7 +10222,7 @@
         <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73">
@@ -10252,112 +10252,112 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G73" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H73" t="n">
         <v>4.7</v>
       </c>
       <c r="I73" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J73" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K73" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
       </c>
       <c r="M73" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N73" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O73" t="n">
         <v>1.48</v>
       </c>
       <c r="P73" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R73" t="n">
         <v>1.23</v>
       </c>
       <c r="S73" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T73" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U73" t="n">
         <v>1.81</v>
       </c>
       <c r="V73" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W73" t="n">
         <v>1.98</v>
       </c>
       <c r="X73" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y73" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA73" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB73" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC73" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD73" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE73" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AF73" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG73" t="n">
         <v>11</v>
       </c>
       <c r="AH73" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AI73" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AJ73" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK73" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AL73" t="n">
         <v>55</v>
       </c>
       <c r="AM73" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN73" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AO73" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
@@ -10393,7 +10393,7 @@
         <v>2.3</v>
       </c>
       <c r="H74" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I74" t="n">
         <v>3.35</v>
@@ -10411,28 +10411,28 @@
         <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O74" t="n">
         <v>1.2</v>
       </c>
       <c r="P74" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q74" t="n">
         <v>1.63</v>
       </c>
       <c r="R74" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S74" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T74" t="n">
         <v>1.56</v>
       </c>
       <c r="U74" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="V74" t="n">
         <v>1.43</v>
@@ -10489,7 +10489,7 @@
         <v>55</v>
       </c>
       <c r="AN74" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO74" t="n">
         <v>22</v>
@@ -10525,19 +10525,19 @@
         <v>2.24</v>
       </c>
       <c r="G75" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="H75" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I75" t="n">
         <v>4.2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K75" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L75" t="n">
         <v>1.35</v>
@@ -10546,43 +10546,43 @@
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="O75" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P75" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R75" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S75" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="T75" t="n">
         <v>1.8</v>
       </c>
       <c r="U75" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V75" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W75" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X75" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y75" t="n">
         <v>15</v>
       </c>
       <c r="Z75" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA75" t="n">
         <v>1000</v>
@@ -10594,19 +10594,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD75" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE75" t="n">
         <v>1000</v>
       </c>
       <c r="AF75" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG75" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AH75" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI75" t="n">
         <v>1000</v>
@@ -10666,7 +10666,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J76" t="n">
         <v>3.15</v>
@@ -10684,34 +10684,34 @@
         <v>2.26</v>
       </c>
       <c r="O76" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P76" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R76" t="n">
         <v>1.18</v>
       </c>
       <c r="S76" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="T76" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="U76" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="V76" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W76" t="n">
         <v>1.64</v>
       </c>
       <c r="X76" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y76" t="n">
         <v>1000</v>
@@ -10723,28 +10723,28 @@
         <v>1000</v>
       </c>
       <c r="AB76" t="n">
-        <v>960</v>
+        <v>19.5</v>
       </c>
       <c r="AC76" t="n">
         <v>9</v>
       </c>
       <c r="AD76" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE76" t="n">
         <v>1000</v>
       </c>
       <c r="AF76" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AG76" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AH76" t="n">
         <v>980</v>
       </c>
       <c r="AI76" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="AJ76" t="n">
         <v>980</v>
@@ -10753,16 +10753,16 @@
         <v>980</v>
       </c>
       <c r="AL76" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AM76" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN76" t="n">
         <v>980</v>
       </c>
       <c r="AO76" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
@@ -10801,7 +10801,7 @@
         <v>3.35</v>
       </c>
       <c r="I77" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J77" t="n">
         <v>3.85</v>
@@ -10810,7 +10810,7 @@
         <v>3.9</v>
       </c>
       <c r="L77" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M77" t="n">
         <v>1.05</v>
@@ -10819,13 +10819,13 @@
         <v>4.7</v>
       </c>
       <c r="O77" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P77" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R77" t="n">
         <v>1.51</v>
@@ -10834,22 +10834,22 @@
         <v>2.86</v>
       </c>
       <c r="T77" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U77" t="n">
         <v>2.46</v>
       </c>
       <c r="V77" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W77" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X77" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y77" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z77" t="n">
         <v>26</v>
@@ -10858,7 +10858,7 @@
         <v>60</v>
       </c>
       <c r="AB77" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC77" t="n">
         <v>8.6</v>
@@ -10897,7 +10897,7 @@
         <v>13</v>
       </c>
       <c r="AO77" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
@@ -10936,7 +10936,7 @@
         <v>3.75</v>
       </c>
       <c r="I78" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J78" t="n">
         <v>3.15</v>
@@ -10945,34 +10945,34 @@
         <v>3.2</v>
       </c>
       <c r="L78" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M78" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N78" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O78" t="n">
         <v>1.48</v>
       </c>
       <c r="P78" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="R78" t="n">
         <v>1.24</v>
       </c>
       <c r="S78" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T78" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U78" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V78" t="n">
         <v>1.35</v>
@@ -10981,7 +10981,7 @@
         <v>1.72</v>
       </c>
       <c r="X78" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y78" t="n">
         <v>11</v>
@@ -10993,7 +10993,7 @@
         <v>75</v>
       </c>
       <c r="AB78" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC78" t="n">
         <v>7</v>
@@ -11029,7 +11029,7 @@
         <v>150</v>
       </c>
       <c r="AN78" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO78" t="n">
         <v>70</v>
@@ -11062,76 +11062,76 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="G79" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H79" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="I79" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="J79" t="n">
         <v>3.75</v>
       </c>
       <c r="K79" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L79" t="n">
         <v>1.34</v>
       </c>
       <c r="M79" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O79" t="n">
         <v>1.34</v>
       </c>
       <c r="P79" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q79" t="n">
         <v>2.02</v>
       </c>
       <c r="R79" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S79" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T79" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U79" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V79" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="W79" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="X79" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y79" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z79" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA79" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC79" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD79" t="n">
         <v>12</v>
@@ -11143,10 +11143,10 @@
         <v>65</v>
       </c>
       <c r="AG79" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AH79" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI79" t="n">
         <v>50</v>
@@ -11167,7 +11167,7 @@
         <v>1000</v>
       </c>
       <c r="AO79" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="80">
@@ -11197,16 +11197,16 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="G80" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I80" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="J80" t="n">
         <v>3.3</v>
@@ -11224,46 +11224,46 @@
         <v>3.25</v>
       </c>
       <c r="O80" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P80" t="n">
         <v>1.74</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R80" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S80" t="n">
         <v>4.3</v>
       </c>
       <c r="T80" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U80" t="n">
         <v>2.02</v>
       </c>
       <c r="V80" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="W80" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X80" t="n">
         <v>11</v>
       </c>
       <c r="Y80" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z80" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA80" t="n">
         <v>46</v>
       </c>
       <c r="AB80" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC80" t="n">
         <v>7</v>
@@ -11272,10 +11272,10 @@
         <v>13</v>
       </c>
       <c r="AE80" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF80" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG80" t="n">
         <v>13</v>
@@ -11287,10 +11287,10 @@
         <v>55</v>
       </c>
       <c r="AJ80" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK80" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL80" t="n">
         <v>55</v>
@@ -11335,19 +11335,19 @@
         <v>2.06</v>
       </c>
       <c r="G81" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H81" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I81" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J81" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K81" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K81" t="n">
-        <v>3.75</v>
       </c>
       <c r="L81" t="n">
         <v>1.41</v>
@@ -11356,88 +11356,88 @@
         <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O81" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P81" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R81" t="n">
         <v>1.35</v>
       </c>
       <c r="S81" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T81" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U81" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V81" t="n">
         <v>1.32</v>
       </c>
       <c r="W81" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X81" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y81" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z81" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA81" t="n">
         <v>85</v>
       </c>
       <c r="AB81" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD81" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF81" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG81" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH81" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI81" t="n">
         <v>60</v>
       </c>
       <c r="AJ81" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL81" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM81" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN81" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO81" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82">
@@ -11467,34 +11467,34 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="G82" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="H82" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I82" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J82" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K82" t="n">
         <v>3.85</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P82" t="n">
         <v>1.67</v>
@@ -11503,76 +11503,76 @@
         <v>2.2</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y82" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z82" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB82" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF82" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AG82" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI82" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="AN82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO82" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="83">
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G83" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>5.2</v>
       </c>
       <c r="I83" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J83" t="n">
         <v>3.15</v>
@@ -11644,16 +11644,16 @@
         <v>4.6</v>
       </c>
       <c r="T83" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U83" t="n">
         <v>1.66</v>
       </c>
       <c r="V83" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W83" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X83" t="n">
         <v>9.199999999999999</v>
@@ -11662,7 +11662,7 @@
         <v>14.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AA83" t="n">
         <v>200</v>
@@ -11686,7 +11686,7 @@
         <v>11.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AI83" t="n">
         <v>150</v>
@@ -11698,7 +11698,7 @@
         <v>32</v>
       </c>
       <c r="AL83" t="n">
-        <v>65</v>
+        <v>480</v>
       </c>
       <c r="AM83" t="n">
         <v>280</v>
@@ -11740,58 +11740,58 @@
         <v>2.36</v>
       </c>
       <c r="G84" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H84" t="n">
         <v>2.9</v>
       </c>
       <c r="I84" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K84" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L84" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M84" t="n">
         <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O84" t="n">
         <v>1.3</v>
       </c>
       <c r="P84" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R84" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S84" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="T84" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U84" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V84" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W84" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X84" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y84" t="n">
         <v>15.5</v>
@@ -11809,19 +11809,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD84" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE84" t="n">
         <v>1000</v>
       </c>
       <c r="AF84" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG84" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH84" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI84" t="n">
         <v>1000</v>
@@ -11836,7 +11836,7 @@
         <v>1000</v>
       </c>
       <c r="AM84" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN84" t="n">
         <v>1000</v>
@@ -11872,19 +11872,19 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G85" t="n">
         <v>2.06</v>
       </c>
       <c r="H85" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I85" t="n">
         <v>4.9</v>
       </c>
       <c r="J85" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K85" t="n">
         <v>3.7</v>
@@ -11893,7 +11893,7 @@
         <v>1.47</v>
       </c>
       <c r="M85" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N85" t="n">
         <v>3.15</v>
@@ -11902,7 +11902,7 @@
         <v>1.4</v>
       </c>
       <c r="P85" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q85" t="n">
         <v>2.14</v>
@@ -11911,13 +11911,13 @@
         <v>1.27</v>
       </c>
       <c r="S85" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T85" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="U85" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V85" t="n">
         <v>1.25</v>
@@ -11926,55 +11926,55 @@
         <v>1.94</v>
       </c>
       <c r="X85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y85" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y85" t="n">
-        <v>17</v>
-      </c>
       <c r="Z85" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AA85" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC85" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD85" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE85" t="n">
         <v>1000</v>
       </c>
       <c r="AF85" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG85" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI85" t="n">
         <v>1000</v>
       </c>
       <c r="AJ85" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK85" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL85" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM85" t="n">
         <v>160</v>
       </c>
       <c r="AN85" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AO85" t="n">
         <v>1000</v>
@@ -12007,16 +12007,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H86" t="n">
         <v>3.35</v>
       </c>
       <c r="I86" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J86" t="n">
         <v>3.35</v>
@@ -12025,7 +12025,7 @@
         <v>3.65</v>
       </c>
       <c r="L86" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M86" t="n">
         <v>1.08</v>
@@ -12037,7 +12037,7 @@
         <v>1.35</v>
       </c>
       <c r="P86" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q86" t="n">
         <v>2.06</v>
@@ -12070,19 +12070,19 @@
         <v>30</v>
       </c>
       <c r="AA86" t="n">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="AB86" t="n">
         <v>11</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD86" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE86" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AF86" t="n">
         <v>15.5</v>
@@ -12094,19 +12094,19 @@
         <v>23</v>
       </c>
       <c r="AI86" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AJ86" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK86" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL86" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM86" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN86" t="n">
         <v>27</v>
@@ -12145,13 +12145,13 @@
         <v>1.96</v>
       </c>
       <c r="G87" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
         <v>3.15</v>
@@ -12178,16 +12178,16 @@
         <v>2.06</v>
       </c>
       <c r="R87" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S87" t="n">
         <v>3.75</v>
       </c>
       <c r="T87" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
       <c r="U87" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="V87" t="n">
         <v>1.25</v>
@@ -12199,7 +12199,7 @@
         <v>1000</v>
       </c>
       <c r="Y87" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z87" t="n">
         <v>1000</v>
@@ -12208,10 +12208,10 @@
         <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC87" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD87" t="n">
         <v>1000</v>
@@ -12220,7 +12220,7 @@
         <v>1000</v>
       </c>
       <c r="AF87" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG87" t="n">
         <v>1000</v>
@@ -12280,28 +12280,28 @@
         <v>2.16</v>
       </c>
       <c r="G88" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H88" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I88" t="n">
         <v>5.1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="K88" t="n">
         <v>2.96</v>
       </c>
       <c r="L88" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="M88" t="n">
         <v>1.2</v>
       </c>
       <c r="N88" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="O88" t="n">
         <v>1.85</v>
@@ -12328,13 +12328,13 @@
         <v>1.24</v>
       </c>
       <c r="W88" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X88" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y88" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z88" t="n">
         <v>34</v>
@@ -12343,16 +12343,16 @@
         <v>170</v>
       </c>
       <c r="AB88" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AC88" t="n">
         <v>7.6</v>
       </c>
       <c r="AD88" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AE88" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF88" t="n">
         <v>10.5</v>
@@ -12361,13 +12361,13 @@
         <v>14.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AI88" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AJ88" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK88" t="n">
         <v>100</v>
@@ -12379,10 +12379,10 @@
         <v>550</v>
       </c>
       <c r="AN88" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AO88" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89">
@@ -12412,16 +12412,16 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G89" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H89" t="n">
         <v>4.1</v>
       </c>
       <c r="I89" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J89" t="n">
         <v>3.2</v>
@@ -12436,10 +12436,10 @@
         <v>1.08</v>
       </c>
       <c r="N89" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O89" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P89" t="n">
         <v>1.62</v>
@@ -12451,22 +12451,22 @@
         <v>1.23</v>
       </c>
       <c r="S89" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T89" t="n">
         <v>1.98</v>
       </c>
       <c r="U89" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V89" t="n">
         <v>1.25</v>
       </c>
       <c r="W89" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X89" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Y89" t="n">
         <v>16</v>
@@ -12550,7 +12550,7 @@
         <v>2.3</v>
       </c>
       <c r="G90" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H90" t="n">
         <v>3.35</v>
@@ -12559,7 +12559,7 @@
         <v>3.75</v>
       </c>
       <c r="J90" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K90" t="n">
         <v>3.5</v>
@@ -12568,28 +12568,28 @@
         <v>1.49</v>
       </c>
       <c r="M90" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N90" t="n">
         <v>3.05</v>
       </c>
       <c r="O90" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P90" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q90" t="n">
         <v>2.18</v>
       </c>
       <c r="R90" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S90" t="n">
         <v>4.1</v>
       </c>
       <c r="T90" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U90" t="n">
         <v>1.94</v>
@@ -12604,22 +12604,22 @@
         <v>13.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z90" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA90" t="n">
         <v>75</v>
       </c>
       <c r="AB90" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC90" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD90" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE90" t="n">
         <v>60</v>
@@ -12628,31 +12628,31 @@
         <v>15.5</v>
       </c>
       <c r="AG90" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH90" t="n">
         <v>21</v>
       </c>
       <c r="AI90" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ90" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK90" t="n">
         <v>32</v>
       </c>
       <c r="AL90" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM90" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN90" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO90" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91">
@@ -12685,10 +12685,10 @@
         <v>1.63</v>
       </c>
       <c r="G91" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H91" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I91" t="n">
         <v>7</v>
@@ -12700,40 +12700,40 @@
         <v>4.4</v>
       </c>
       <c r="L91" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M91" t="n">
         <v>1.05</v>
       </c>
       <c r="N91" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O91" t="n">
         <v>1.31</v>
       </c>
       <c r="P91" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R91" t="n">
         <v>1.37</v>
       </c>
       <c r="S91" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T91" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U91" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V91" t="n">
         <v>1.17</v>
       </c>
       <c r="W91" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X91" t="n">
         <v>19</v>
@@ -12748,10 +12748,10 @@
         <v>220</v>
       </c>
       <c r="AB91" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC91" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD91" t="n">
         <v>26</v>
@@ -12772,13 +12772,13 @@
         <v>95</v>
       </c>
       <c r="AJ91" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK91" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AL91" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM91" t="n">
         <v>150</v>
@@ -12820,109 +12820,109 @@
         <v>1.56</v>
       </c>
       <c r="G92" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
-        <v>1.09</v>
+        <v>4.6</v>
       </c>
       <c r="I92" t="n">
         <v>9.4</v>
       </c>
       <c r="J92" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K92" t="n">
         <v>4.9</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P92" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q92" t="n">
         <v>1.93</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
